--- a/access.xlsx
+++ b/access.xlsx
@@ -3472,244 +3472,244 @@
     <t>Mozilla/5.0 (iPad; U; CPU OS 4_3_5 like Mac OS X; en-us) AppleWebKit/533.17.9 (KHTML, like Gecko) Version/5.0.2 Mobile/8L1 Safari/6533.18.5</t>
   </si>
   <si>
-    <t>SD0SL6FF7ADFF4953</t>
-  </si>
-  <si>
-    <t>SD7SL8FF5ADFF4964</t>
-  </si>
-  <si>
-    <t>SD4SL7FF10ADFF4998</t>
-  </si>
-  <si>
-    <t>SD9SL6FF8ADFF5015</t>
-  </si>
-  <si>
-    <t>SD8SL8FF3ADFF5080</t>
-  </si>
-  <si>
-    <t>SD6SL9FF1ADFF5081</t>
-  </si>
-  <si>
-    <t>SD10SL10FF5ADFF5106</t>
-  </si>
-  <si>
-    <t>SD4SL5FF3ADFF5111</t>
-  </si>
-  <si>
-    <t>SD1SL8FF9ADFF5125</t>
-  </si>
-  <si>
-    <t>SD0SL3FF2ADFF5170</t>
-  </si>
-  <si>
-    <t>SD6SL1FF10ADFF5226</t>
-  </si>
-  <si>
-    <t>SD0SL10FF6ADFF5239</t>
-  </si>
-  <si>
-    <t>SD7SL2FF4ADFF5246</t>
-  </si>
-  <si>
-    <t>SD0SL5FF6ADFF5249</t>
-  </si>
-  <si>
-    <t>SD8SL10FF4ADFF5315</t>
-  </si>
-  <si>
-    <t>SD5SL5FF2ADFF5320</t>
-  </si>
-  <si>
-    <t>SD2SL4FF8ADFF5354</t>
-  </si>
-  <si>
-    <t>SD1SL8FF3ADFF5403</t>
-  </si>
-  <si>
-    <t>SD10SL7FF8ADFF5413</t>
-  </si>
-  <si>
-    <t>SD6SL1FF3ADFF5447</t>
-  </si>
-  <si>
-    <t>SD2SL4FF3ADFF5462</t>
-  </si>
-  <si>
-    <t>SD3SL6FF8ADFF5561</t>
-  </si>
-  <si>
-    <t>SD0SL1FF9ADFF5673</t>
-  </si>
-  <si>
-    <t>SD9SL8FF7ADFF5705</t>
-  </si>
-  <si>
-    <t>SD1SL1FF3ADFF5727</t>
-  </si>
-  <si>
-    <t>SD10SL3FF1ADFF5730</t>
-  </si>
-  <si>
-    <t>SD7SL10FF9ADFF5732</t>
-  </si>
-  <si>
-    <t>SD3SL2FF10ADFF5741</t>
-  </si>
-  <si>
-    <t>SD2SL5FF3ADFF5751</t>
-  </si>
-  <si>
-    <t>SD7SL7FF10ADFF5760</t>
-  </si>
-  <si>
-    <t>SD5SL4FF9ADFF5774</t>
-  </si>
-  <si>
-    <t>SD0SL6FF4ADFF5775</t>
-  </si>
-  <si>
-    <t>SD6SL3FF2ADFF5781</t>
-  </si>
-  <si>
-    <t>SD2SL1FF8ADFF5783</t>
-  </si>
-  <si>
-    <t>SD5SL8FF8ADFF5786</t>
-  </si>
-  <si>
-    <t>SD1SL10FF4ADFF5816</t>
-  </si>
-  <si>
-    <t>SD0SL3FF5ADFF5870</t>
-  </si>
-  <si>
-    <t>SD8SL8FF7ADFF5918</t>
-  </si>
-  <si>
-    <t>SD9SL9FF4ADFF5934</t>
-  </si>
-  <si>
-    <t>SD5SL7FF10ADFF5953</t>
-  </si>
-  <si>
-    <t>SD3SL7FF5ADFF5967</t>
-  </si>
-  <si>
-    <t>SD10SL2FF3ADFF5972</t>
-  </si>
-  <si>
-    <t>SD7SL1FF6ADFF5984</t>
-  </si>
-  <si>
-    <t>SD8SL2FF10ADFF6020</t>
-  </si>
-  <si>
-    <t>SD4SL8FF1ADFF6025</t>
-  </si>
-  <si>
-    <t>SD7SL2FF8ADFF6045</t>
-  </si>
-  <si>
-    <t>SD4SL1FF4ADFF6059</t>
-  </si>
-  <si>
-    <t>SD1SL2FF4ADFF6067</t>
-  </si>
-  <si>
-    <t>SD7SL10FF2ADFF6070</t>
-  </si>
-  <si>
-    <t>SD4SL8FF10ADFF6075</t>
-  </si>
-  <si>
-    <t>SD3SL7FF6ADFF6092</t>
-  </si>
-  <si>
-    <t>SD9SL9FF2ADFF6125</t>
-  </si>
-  <si>
-    <t>SD2SL4FF9ADFF6145</t>
-  </si>
-  <si>
-    <t>SD1SL10FF2ADFF6162</t>
-  </si>
-  <si>
-    <t>SD0SL8FF4ADFF6172</t>
-  </si>
-  <si>
-    <t>SD4SL10FF9ADFF6227</t>
-  </si>
-  <si>
-    <t>SD1SL9FF6ADFF6336</t>
-  </si>
-  <si>
-    <t>SD5SL7FF1ADFF6435</t>
-  </si>
-  <si>
-    <t>SD8SL8FF4ADFF6455</t>
-  </si>
-  <si>
-    <t>SD1SL5FF10ADFF6479</t>
-  </si>
-  <si>
-    <t>SD1SL6FF6ADFF6510</t>
-  </si>
-  <si>
-    <t>SD1SL7FF7ADFF6513</t>
-  </si>
-  <si>
-    <t>SD5SL4FF2ADFF6540</t>
-  </si>
-  <si>
-    <t>SD9SL8FF2ADFF6591</t>
-  </si>
-  <si>
-    <t>SD0SL9FF8ADFF6607</t>
-  </si>
-  <si>
-    <t>SD10SL3FF2ADFF6610</t>
-  </si>
-  <si>
-    <t>SD3SL5FF5ADFF6631</t>
-  </si>
-  <si>
-    <t>SD1SL8FF1ADFF6640</t>
-  </si>
-  <si>
-    <t>SD7SL9FF8ADFF6655</t>
-  </si>
-  <si>
-    <t>SD4SL1FF9ADFF6661</t>
-  </si>
-  <si>
-    <t>SD3SL8FF9ADFF6719</t>
-  </si>
-  <si>
-    <t>SD0SL8FF6ADFF6733</t>
-  </si>
-  <si>
-    <t>SD1SL8FF10ADFF6781</t>
-  </si>
-  <si>
-    <t>SD2SL7FF5ADFF6799</t>
-  </si>
-  <si>
-    <t>SD7SL9FF10ADFF6804</t>
-  </si>
-  <si>
-    <t>SD8SL2FF5ADFF6837</t>
-  </si>
-  <si>
-    <t>SD3SL9FF9ADFF6869</t>
-  </si>
-  <si>
-    <t>SD6SL7FF8ADFF6876</t>
-  </si>
-  <si>
-    <t>SD7SL10FF4ADFF6919</t>
-  </si>
-  <si>
-    <t>SD0SL2FF3ADFF6929</t>
+    <t>FF4953</t>
+  </si>
+  <si>
+    <t>FF4964</t>
+  </si>
+  <si>
+    <t>FF4998</t>
+  </si>
+  <si>
+    <t>FF5015</t>
+  </si>
+  <si>
+    <t>FF5080</t>
+  </si>
+  <si>
+    <t>FF5081</t>
+  </si>
+  <si>
+    <t>FF5106</t>
+  </si>
+  <si>
+    <t>FF5111</t>
+  </si>
+  <si>
+    <t>FF5125</t>
+  </si>
+  <si>
+    <t>FF5170</t>
+  </si>
+  <si>
+    <t>FF5226</t>
+  </si>
+  <si>
+    <t>FF5239</t>
+  </si>
+  <si>
+    <t>FF5246</t>
+  </si>
+  <si>
+    <t>FF5249</t>
+  </si>
+  <si>
+    <t>FF5315</t>
+  </si>
+  <si>
+    <t>FF5320</t>
+  </si>
+  <si>
+    <t>FF5354</t>
+  </si>
+  <si>
+    <t>FF5403</t>
+  </si>
+  <si>
+    <t>FF5413</t>
+  </si>
+  <si>
+    <t>FF5447</t>
+  </si>
+  <si>
+    <t>FF5462</t>
+  </si>
+  <si>
+    <t>FF5561</t>
+  </si>
+  <si>
+    <t>FF5673</t>
+  </si>
+  <si>
+    <t>FF5705</t>
+  </si>
+  <si>
+    <t>FF5727</t>
+  </si>
+  <si>
+    <t>FF5730</t>
+  </si>
+  <si>
+    <t>FF5732</t>
+  </si>
+  <si>
+    <t>FF5741</t>
+  </si>
+  <si>
+    <t>FF5751</t>
+  </si>
+  <si>
+    <t>FF5760</t>
+  </si>
+  <si>
+    <t>FF5774</t>
+  </si>
+  <si>
+    <t>FF5775</t>
+  </si>
+  <si>
+    <t>FF5781</t>
+  </si>
+  <si>
+    <t>FF5783</t>
+  </si>
+  <si>
+    <t>FF5786</t>
+  </si>
+  <si>
+    <t>FF5816</t>
+  </si>
+  <si>
+    <t>FF5870</t>
+  </si>
+  <si>
+    <t>FF5918</t>
+  </si>
+  <si>
+    <t>FF5934</t>
+  </si>
+  <si>
+    <t>FF5953</t>
+  </si>
+  <si>
+    <t>FF5967</t>
+  </si>
+  <si>
+    <t>FF5972</t>
+  </si>
+  <si>
+    <t>FF5984</t>
+  </si>
+  <si>
+    <t>FF6020</t>
+  </si>
+  <si>
+    <t>FF6025</t>
+  </si>
+  <si>
+    <t>FF6045</t>
+  </si>
+  <si>
+    <t>FF6059</t>
+  </si>
+  <si>
+    <t>FF6067</t>
+  </si>
+  <si>
+    <t>FF6070</t>
+  </si>
+  <si>
+    <t>FF6075</t>
+  </si>
+  <si>
+    <t>FF6092</t>
+  </si>
+  <si>
+    <t>FF6125</t>
+  </si>
+  <si>
+    <t>FF6145</t>
+  </si>
+  <si>
+    <t>FF6162</t>
+  </si>
+  <si>
+    <t>FF6172</t>
+  </si>
+  <si>
+    <t>FF6227</t>
+  </si>
+  <si>
+    <t>FF6336</t>
+  </si>
+  <si>
+    <t>FF6435</t>
+  </si>
+  <si>
+    <t>FF6455</t>
+  </si>
+  <si>
+    <t>FF6479</t>
+  </si>
+  <si>
+    <t>FF6510</t>
+  </si>
+  <si>
+    <t>FF6513</t>
+  </si>
+  <si>
+    <t>FF6540</t>
+  </si>
+  <si>
+    <t>FF6591</t>
+  </si>
+  <si>
+    <t>FF6607</t>
+  </si>
+  <si>
+    <t>FF6610</t>
+  </si>
+  <si>
+    <t>FF6631</t>
+  </si>
+  <si>
+    <t>FF6640</t>
+  </si>
+  <si>
+    <t>FF6655</t>
+  </si>
+  <si>
+    <t>FF6661</t>
+  </si>
+  <si>
+    <t>FF6719</t>
+  </si>
+  <si>
+    <t>FF6733</t>
+  </si>
+  <si>
+    <t>FF6781</t>
+  </si>
+  <si>
+    <t>FF6799</t>
+  </si>
+  <si>
+    <t>FF6804</t>
+  </si>
+  <si>
+    <t>FF6837</t>
+  </si>
+  <si>
+    <t>FF6869</t>
+  </si>
+  <si>
+    <t>FF6876</t>
+  </si>
+  <si>
+    <t>FF6919</t>
+  </si>
+  <si>
+    <t>FF6929</t>
   </si>
 </sst>
 </file>
